--- a/2-PERSONAL/1-INGRESOS/JUNIO-2022-INGRESOS DE PERSONAL.xlsx
+++ b/2-PERSONAL/1-INGRESOS/JUNIO-2022-INGRESOS DE PERSONAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\1-INGRESOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44C3C23-2710-4AC7-88CE-CF3D269F9232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AE5F43-2576-478C-A1B6-5F7A06BC84AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
   <si>
     <t>N°</t>
   </si>
@@ -252,54 +252,6 @@
     <t>19497406330030</t>
   </si>
   <si>
-    <t>ASTETE MALASQUEZ</t>
-  </si>
-  <si>
-    <t>VICTOR NICOLAS</t>
-  </si>
-  <si>
-    <t>ASTO OSORIO</t>
-  </si>
-  <si>
-    <t>VICTOR ZENON</t>
-  </si>
-  <si>
-    <t>BENIQUE RAMOS</t>
-  </si>
-  <si>
-    <t>LILIANA HEYDI</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ DURAN</t>
-  </si>
-  <si>
-    <t>JUAN MATEO</t>
-  </si>
-  <si>
-    <t>GALARZA CASTRO</t>
-  </si>
-  <si>
-    <t>ALAYSKA ALEXANDRA</t>
-  </si>
-  <si>
-    <t>RIVAS HUAMAN</t>
-  </si>
-  <si>
-    <t>MARIA DE LOS ANGELES</t>
-  </si>
-  <si>
-    <t>RUIZ VALVERDE</t>
-  </si>
-  <si>
-    <t>FLOR DE MARIA</t>
-  </si>
-  <si>
-    <t>VILCHEZ RUIZ</t>
-  </si>
-  <si>
-    <t>PABLO AIMAN</t>
-  </si>
-  <si>
     <t>ASTETE MALASQUEZ VICTOR NICOLAS</t>
   </si>
   <si>
@@ -367,6 +319,63 @@
   </si>
   <si>
     <t>19404736260099</t>
+  </si>
+  <si>
+    <t>CUNYA ODAR</t>
+  </si>
+  <si>
+    <t>JEFFERSON DANTE</t>
+  </si>
+  <si>
+    <t>HUAMANI CONDORI</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>PULLO ESCRIBA</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>CUNYA ODAR JEFFERSON DANTE</t>
+  </si>
+  <si>
+    <t>HUAMANI CONDORI JULIA</t>
+  </si>
+  <si>
+    <t>PULLO ESCRIBA VIRGINIA</t>
+  </si>
+  <si>
+    <t>76286772</t>
+  </si>
+  <si>
+    <t>15443104</t>
+  </si>
+  <si>
+    <t>10814068</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Jr. Cajabamba 371 Urb. Tupac Amaru - Indepencia</t>
+  </si>
+  <si>
+    <t>Calle Cusco Mz:A1 Lt:4 15 de Enero - Chilca</t>
+  </si>
+  <si>
+    <t>Av. 28 de Julio Mz:U Lt:1 15 de Enero - Chilca</t>
+  </si>
+  <si>
+    <t>jefferson52652@gmail.com</t>
+  </si>
+  <si>
+    <t>juliahuamanicondori2@gmail.com</t>
+  </si>
+  <si>
+    <t>vicky.ep1102@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1217,11 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1230,25 +1238,26 @@
     <col min="2" max="2" width="12.7109375" style="18" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="18" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="19" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="19" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="12" customWidth="1"/>
     <col min="12" max="12" width="11" style="12" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="12" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="18" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="18" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="16.85546875" style="18" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="12"/>
-    <col min="23" max="23" width="11.42578125" style="21"/>
-    <col min="24" max="24" width="15" style="18" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="18" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" style="20" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="0" style="12" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0" style="21" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="18" hidden="1" customWidth="1"/>
     <col min="25" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
@@ -1326,7 +1335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -1372,7 +1381,7 @@
       <c r="W2" s="70"/>
       <c r="X2" s="36"/>
     </row>
-    <row r="3" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -1418,7 +1427,7 @@
       <c r="W3" s="70"/>
       <c r="X3" s="36"/>
     </row>
-    <row r="4" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -1466,7 +1475,7 @@
       <c r="W4" s="70"/>
       <c r="X4" s="36"/>
     </row>
-    <row r="5" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -1516,7 +1525,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="36"/>
     </row>
-    <row r="6" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -1564,7 +1573,7 @@
       <c r="W6" s="70"/>
       <c r="X6" s="36"/>
     </row>
-    <row r="7" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -1722,7 +1731,7 @@
       <c r="W9" s="70"/>
       <c r="X9" s="36"/>
     </row>
-    <row r="10" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -1770,7 +1779,7 @@
       <c r="W10" s="70"/>
       <c r="X10" s="36"/>
     </row>
-    <row r="11" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -1874,7 +1883,7 @@
       <c r="W12" s="70"/>
       <c r="X12" s="36"/>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -1882,17 +1891,17 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4">
         <v>37412</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2">
         <v>977744151</v>
@@ -1904,7 +1913,7 @@
         <v>1025</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="3"/>
@@ -1922,7 +1931,7 @@
       <c r="W13" s="11"/>
       <c r="X13" s="27"/>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -1930,17 +1939,17 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4">
         <v>36445</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H14" s="2">
         <v>910868042</v>
@@ -1952,7 +1961,7 @@
         <v>1025</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="3"/>
@@ -1972,7 +1981,7 @@
       <c r="W14" s="11"/>
       <c r="X14" s="27"/>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -1980,17 +1989,17 @@
         <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4">
         <v>37496</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H15" s="2">
         <v>928658741</v>
@@ -2002,7 +2011,7 @@
         <v>1025</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="3"/>
@@ -2019,14 +2028,14 @@
         <v>68</v>
       </c>
       <c r="T15" s="61" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="U15" s="62"/>
       <c r="V15" s="28"/>
       <c r="W15" s="11"/>
       <c r="X15" s="27"/>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -2034,17 +2043,17 @@
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4">
         <v>36753</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2">
         <v>978905234</v>
@@ -2056,7 +2065,7 @@
         <v>1025</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="3"/>
@@ -2074,7 +2083,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="27"/>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -2082,17 +2091,17 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4">
         <v>28399</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H17" s="2">
         <v>985527539</v>
@@ -2104,7 +2113,7 @@
         <v>1025</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="3"/>
@@ -2124,7 +2133,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="27"/>
     </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -2132,17 +2141,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4">
         <v>38015</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H18" s="2">
         <v>938738540</v>
@@ -2154,7 +2163,7 @@
         <v>1025</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="3"/>
@@ -2173,23 +2182,41 @@
       <c r="X18" s="27"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="35">
+        <v>18</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="4">
+        <v>36147</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="2">
+        <v>999555612</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="36"/>
       <c r="P19" s="47"/>
-      <c r="Q19" s="40"/>
+      <c r="Q19" s="40">
+        <v>44727</v>
+      </c>
       <c r="R19" s="40"/>
       <c r="S19" s="35"/>
       <c r="T19" s="61"/>
@@ -2199,23 +2226,45 @@
       <c r="X19" s="27"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="35">
+        <v>19</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
+      <c r="F20" s="4">
+        <v>28425</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="2">
+        <v>922993038</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1025</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="27"/>
+      <c r="O20" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="P20" s="47"/>
-      <c r="Q20" s="40"/>
+      <c r="Q20" s="40">
+        <v>44727</v>
+      </c>
       <c r="R20" s="40"/>
       <c r="S20" s="35"/>
       <c r="T20" s="61"/>
@@ -2225,23 +2274,45 @@
       <c r="X20" s="27"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="35">
+        <v>20</v>
+      </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
+      <c r="F21" s="4">
+        <v>28431</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="2">
+        <v>980613113</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1025</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="27"/>
+      <c r="O21" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="P21" s="47"/>
-      <c r="Q21" s="40"/>
+      <c r="Q21" s="40">
+        <v>44727</v>
+      </c>
       <c r="R21" s="40"/>
       <c r="S21" s="35"/>
       <c r="T21" s="61"/>
@@ -2745,18 +2816,6 @@
       <c r="X40" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X18" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="16">
-      <filters>
-        <dateGroupItem year="2022" month="6" day="1" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="18">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2766,7 +2825,7 @@
   <dimension ref="B4:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,98 +2838,78 @@
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="str">
         <f>CONCATENATE(C4," ",D4)</f>
-        <v>ASTETE MALASQUEZ VICTOR NICOLAS</v>
+        <v>CUNYA ODAR JEFFERSON DANTE</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="str">
         <f t="shared" ref="B5:B19" si="0">CONCATENATE(C5," ",D5)</f>
-        <v>ASTO OSORIO VICTOR ZENON</v>
+        <v>HUAMANI CONDORI JULIA</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>BENIQUE RAMOS LILIANA HEYDI</v>
+        <v>PULLO ESCRIBA VIRGINIA</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>DE LA CRUZ DURAN JUAN MATEO</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>79</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>GALARZA CASTRO ALAYSKA ALEXANDRA</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>81</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>RIVAS HUAMAN MARIA DE LOS ANGELES</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>83</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>RUIZ VALVERDE FLOR DE MARIA</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>85</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>VILCHEZ RUIZ PABLO AIMAN</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>87</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="67" t="str">

--- a/2-PERSONAL/1-INGRESOS/JUNIO-2022-INGRESOS DE PERSONAL.xlsx
+++ b/2-PERSONAL/1-INGRESOS/JUNIO-2022-INGRESOS DE PERSONAL.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\1-INGRESOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AE5F43-2576-478C-A1B6-5F7A06BC84AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8B1471-FE77-4B62-9E6A-D62993E30674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$21</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
   <si>
     <t>N°</t>
   </si>
@@ -376,6 +377,24 @@
   </si>
   <si>
     <t>vicky.ep1102@hotmail.com</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>NOCHE</t>
+  </si>
+  <si>
+    <t>TARDE</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>TURNO</t>
+  </si>
+  <si>
+    <t>FECHA</t>
   </si>
 </sst>
 </file>
@@ -707,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,12 +906,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1226,10 +1261,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1239,16 +1275,16 @@
     <col min="3" max="3" width="33" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="18" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="18" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="18" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="19" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="19" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="12" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="12" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="12" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="18" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" style="12" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" style="18" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" style="18" hidden="1" customWidth="1"/>
@@ -1335,7 +1371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -1381,7 +1417,7 @@
       <c r="W2" s="70"/>
       <c r="X2" s="36"/>
     </row>
-    <row r="3" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -1427,7 +1463,7 @@
       <c r="W3" s="70"/>
       <c r="X3" s="36"/>
     </row>
-    <row r="4" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -1475,7 +1511,7 @@
       <c r="W4" s="70"/>
       <c r="X4" s="36"/>
     </row>
-    <row r="5" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -1525,7 +1561,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="36"/>
     </row>
-    <row r="6" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -1573,7 +1609,7 @@
       <c r="W6" s="70"/>
       <c r="X6" s="36"/>
     </row>
-    <row r="7" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -1621,7 +1657,7 @@
       <c r="W7" s="70"/>
       <c r="X7" s="36"/>
     </row>
-    <row r="8" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -1675,7 +1711,7 @@
       <c r="W8" s="70"/>
       <c r="X8" s="36"/>
     </row>
-    <row r="9" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -1731,7 +1767,7 @@
       <c r="W9" s="70"/>
       <c r="X9" s="36"/>
     </row>
-    <row r="10" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -1779,7 +1815,7 @@
       <c r="W10" s="70"/>
       <c r="X10" s="36"/>
     </row>
-    <row r="11" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -1829,7 +1865,7 @@
       <c r="W11" s="70"/>
       <c r="X11" s="36"/>
     </row>
-    <row r="12" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -1883,14 +1919,14 @@
       <c r="W12" s="70"/>
       <c r="X12" s="36"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="73" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1931,14 +1967,14 @@
       <c r="W13" s="11"/>
       <c r="X13" s="27"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="73" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2350,7 +2386,9 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
@@ -2816,6 +2854,17 @@
       <c r="X40" s="31"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X21" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <dateGroupItem year="2022" month="6" day="11" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="6" day="15" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2978,4 +3027,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0A6712-24CB-429A-9EC0-402DCE616392}">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="74" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-PERSONAL/1-INGRESOS/JUNIO-2022-INGRESOS DE PERSONAL.xlsx
+++ b/2-PERSONAL/1-INGRESOS/JUNIO-2022-INGRESOS DE PERSONAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\1-INGRESOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8B1471-FE77-4B62-9E6A-D62993E30674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E55FFBA-86EB-4F7C-96CE-BD47416DCB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1261,11 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -1417,7 +1416,7 @@
       <c r="W2" s="70"/>
       <c r="X2" s="36"/>
     </row>
-    <row r="3" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -1463,7 +1462,7 @@
       <c r="W3" s="70"/>
       <c r="X3" s="36"/>
     </row>
-    <row r="4" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -1511,7 +1510,7 @@
       <c r="W4" s="70"/>
       <c r="X4" s="36"/>
     </row>
-    <row r="5" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -1561,7 +1560,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="36"/>
     </row>
-    <row r="6" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -1609,7 +1608,7 @@
       <c r="W6" s="70"/>
       <c r="X6" s="36"/>
     </row>
-    <row r="7" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -1657,7 +1656,7 @@
       <c r="W7" s="70"/>
       <c r="X7" s="36"/>
     </row>
-    <row r="8" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -1711,7 +1710,7 @@
       <c r="W8" s="70"/>
       <c r="X8" s="36"/>
     </row>
-    <row r="9" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -1767,7 +1766,7 @@
       <c r="W9" s="70"/>
       <c r="X9" s="36"/>
     </row>
-    <row r="10" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -1815,7 +1814,7 @@
       <c r="W10" s="70"/>
       <c r="X10" s="36"/>
     </row>
-    <row r="11" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -1865,7 +1864,7 @@
       <c r="W11" s="70"/>
       <c r="X11" s="36"/>
     </row>
-    <row r="12" spans="1:24" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -1919,7 +1918,7 @@
       <c r="W12" s="70"/>
       <c r="X12" s="36"/>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -1967,7 +1966,7 @@
       <c r="W13" s="11"/>
       <c r="X13" s="27"/>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -2854,17 +2853,7 @@
       <c r="X40" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X21" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters>
-        <dateGroupItem year="2022" month="6" day="11" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="6" day="15" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:X21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3033,7 +3022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0A6712-24CB-429A-9EC0-402DCE616392}">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
